--- a/Intro to HPC/experiments_1.xlsx
+++ b/Intro to HPC/experiments_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Documents\Course_stuff\Intro to HPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76213F6F-A9A8-427F-BD56-83B6C6AC6348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071B9F68-5856-4FEC-A3A8-0395DF1C6BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AD1B619-4ABD-4D5E-9B53-0EED97051ED0}"/>
+    <workbookView xWindow="-10785" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{1AD1B619-4ABD-4D5E-9B53-0EED97051ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t xml:space="preserve">Omega </t>
   </si>
@@ -56,13 +56,124 @@
   </si>
   <si>
     <t>EX2_2</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>200x200</t>
+  </si>
+  <si>
+    <t>400x400</t>
+  </si>
+  <si>
+    <t>800x800</t>
+  </si>
+  <si>
+    <t>4x1</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>total time for iterations (150)</t>
+  </si>
+  <si>
+    <t>0.2814</t>
+  </si>
+  <si>
+    <t>seconds (per-processor mean)</t>
+  </si>
+  <si>
+    <t>0.2721</t>
+  </si>
+  <si>
+    <t>200 iterations</t>
+  </si>
+  <si>
+    <t>250 iterations</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Estimates</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>number of iterations</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>300x300</t>
+  </si>
+  <si>
+    <t>500x500</t>
+  </si>
+  <si>
+    <t>EX2.5 (omega = 1.95)</t>
+  </si>
+  <si>
+    <t>EX2_3 (omega = 1.95)</t>
+  </si>
+  <si>
+    <t>iteration number</t>
+  </si>
+  <si>
+    <t>ex2.6 (omega = 1.95) (size = 500x500)</t>
+  </si>
+  <si>
+    <t>error (absolute difference)</t>
+  </si>
+  <si>
+    <t>time (seconds)</t>
+  </si>
+  <si>
+    <t>config (original)</t>
+  </si>
+  <si>
+    <t>(avoid loop)</t>
+  </si>
+  <si>
+    <t>ex2.9 (w = 1.95)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +189,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,15 +226,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -118,6 +272,1939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$48:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.8140000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.508E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.284E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0579999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6399999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0299999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7399999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.12E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.16E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FC9-4FCB-9F13-23B1546FAE17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1493553839"/>
+        <c:axId val="1493552175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1493553839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493552175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1493552175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493553839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6980000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.245E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.036E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5400000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.96E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5800000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.01E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.08E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7999999999999998E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FD4-4A57-B591-2652B9EC86DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1677911855"/>
+        <c:axId val="1677912271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1677911855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1677912271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1677912271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1677911855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E53A4B-2F2A-4611-BFD4-38281AE56292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1BD235-BC95-4E65-9DA3-E8BC3B67B873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,23 +2504,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B282BA-F59B-487E-B229-EFDCE483D876}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.140625" customWidth="1"/>
+    <col min="1" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,48 +2530,959 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>849</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.93389999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" ref="B15:D15" si="0">AVERAGE(B13:B14)</f>
+        <v>8.9749999999999996E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.27675</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94330000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.3609</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.1075</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.3533</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.282</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" ref="B22:D22" si="1">AVERAGE(B20:B21)</f>
+        <v>0.11274999999999999</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.434</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1.401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.3979999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:D28" si="2">AVERAGE(B26:B27)</f>
+        <v>0.13205</v>
+      </c>
+      <c r="C28" s="12">
+        <f>AVERAGE(C26:C27)</f>
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>2.6929999999999999E-2</v>
+      </c>
+      <c r="C31" s="14">
+        <v>5.6667000000000002E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.27860000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4.2299999999999998E-4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4.5620000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="18">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="18">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="16">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="16">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="19">
+        <v>100</v>
+      </c>
+      <c r="C47" s="21">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="19">
+        <v>200</v>
+      </c>
+      <c r="C48" s="21">
+        <v>1.8140000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="19">
+        <v>300</v>
+      </c>
+      <c r="C49" s="21">
+        <v>1.508E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="19">
+        <v>400</v>
+      </c>
+      <c r="C50" s="21">
+        <v>1.284E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="19">
+        <v>500</v>
+      </c>
+      <c r="C51" s="21">
+        <v>1.0579999999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19">
+        <v>600</v>
+      </c>
+      <c r="C52" s="21">
+        <v>8.6399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="19">
+        <v>700</v>
+      </c>
+      <c r="C53" s="21">
+        <v>7.0299999999999996E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="19">
+        <v>800</v>
+      </c>
+      <c r="C54" s="21">
+        <v>5.7399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="19">
+        <v>900</v>
+      </c>
+      <c r="C55" s="22">
+        <v>4.6999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="22">
+        <v>3.8499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="19">
+        <v>1100</v>
+      </c>
+      <c r="C57" s="22">
+        <v>3.1500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="19">
+        <v>1200</v>
+      </c>
+      <c r="C58" s="22">
+        <v>2.5799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="19">
+        <v>1300</v>
+      </c>
+      <c r="C59" s="22">
+        <v>2.12E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1400</v>
+      </c>
+      <c r="C60" s="22">
+        <v>1.73E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="19">
+        <v>1500</v>
+      </c>
+      <c r="C61" s="22">
+        <v>1.4200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="19">
+        <v>1600</v>
+      </c>
+      <c r="C62" s="22">
+        <v>1.16E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="22"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="19">
+        <v>100</v>
+      </c>
+      <c r="C64" s="22">
+        <v>2.4559999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="19">
+        <v>200</v>
+      </c>
+      <c r="C65" s="22">
+        <v>1.6980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="19">
+        <v>300</v>
+      </c>
+      <c r="C66" s="22">
+        <v>1.245E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="19">
+        <v>400</v>
+      </c>
+      <c r="C67" s="22">
+        <v>1.036E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="19">
+        <v>500</v>
+      </c>
+      <c r="C68" s="22">
+        <v>8.5400000000000005E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="19">
+        <v>600</v>
+      </c>
+      <c r="C69" s="22">
+        <v>6.96E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="19">
+        <v>700</v>
+      </c>
+      <c r="C70" s="22">
+        <v>5.6499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="19">
+        <v>800</v>
+      </c>
+      <c r="C71" s="22">
+        <v>4.5800000000000002E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="19">
+        <v>900</v>
+      </c>
+      <c r="C72" s="22">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C73" s="22">
+        <v>3.01E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="19">
+        <v>1100</v>
+      </c>
+      <c r="C74" s="22">
+        <v>2.4499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="19">
+        <v>1200</v>
+      </c>
+      <c r="C75" s="22">
+        <v>1.9900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="19">
+        <v>1300</v>
+      </c>
+      <c r="C76" s="22">
+        <v>1.6200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="19">
+        <v>1400</v>
+      </c>
+      <c r="C77" s="22">
+        <v>1.3200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="19">
+        <v>1500</v>
+      </c>
+      <c r="C78" s="22">
+        <v>1.08E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="19">
+        <v>1600</v>
+      </c>
+      <c r="C79" s="22">
+        <v>8.7999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="5">
+        <v>200</v>
+      </c>
+      <c r="D83">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="5">
+        <v>200</v>
+      </c>
+      <c r="D84">
+        <v>0.35289999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5">
+        <v>200</v>
+      </c>
+      <c r="D85">
+        <v>1.169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5">
+        <v>200</v>
+      </c>
+      <c r="D86">
+        <v>0.1137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="5">
+        <v>200</v>
+      </c>
+      <c r="D87">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5">
+        <v>200</v>
+      </c>
+      <c r="D88">
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="5">
+        <v>200</v>
+      </c>
+      <c r="D90">
+        <v>9.1759999999999994E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5">
+        <v>200</v>
+      </c>
+      <c r="D91">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="5">
+        <v>200</v>
+      </c>
+      <c r="D92">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="5">
+        <v>200</v>
+      </c>
+      <c r="D93">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="5">
+        <v>200</v>
+      </c>
+      <c r="D94">
+        <v>0.29420000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5">
+        <v>200</v>
+      </c>
+      <c r="D95">
+        <v>0.92049999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>